--- a/filteredDataSet.xlsx
+++ b/filteredDataSet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId5"/>
+    <pivotCache cacheId="57" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43776.641606134261" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="442">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43776.660795601849" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="442">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F443" sheet="output"/>
   </cacheSource>
@@ -139,11 +139,11 @@
         <n v="1"/>
         <n v="2"/>
         <n v="5"/>
-        <n v="8"/>
         <n v="3"/>
         <n v="4"/>
+        <n v="7"/>
         <n v="6"/>
-        <n v="7"/>
+        <n v="8"/>
         <n v="9"/>
       </sharedItems>
     </cacheField>
@@ -201,7 +201,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Score" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="1324"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="175" maxValue="1515"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -228,7 +228,7 @@
     <x v="0"/>
     <s v="F"/>
     <x v="1"/>
-    <n v="894"/>
+    <n v="1225"/>
   </r>
   <r>
     <n v="141"/>
@@ -236,7 +236,7 @@
     <x v="0"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="834"/>
+    <n v="684"/>
   </r>
   <r>
     <n v="304"/>
@@ -244,7 +244,7 @@
     <x v="0"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="533"/>
+    <n v="630"/>
   </r>
   <r>
     <n v="383"/>
@@ -252,7 +252,7 @@
     <x v="0"/>
     <s v="M"/>
     <x v="1"/>
-    <n v="722"/>
+    <n v="712"/>
   </r>
   <r>
     <n v="238"/>
@@ -260,7 +260,15 @@
     <x v="0"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="715"/>
+    <n v="697"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="391"/>
   </r>
   <r>
     <n v="436"/>
@@ -268,255 +276,263 @@
     <x v="0"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="995"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="F"/>
+    <n v="575"/>
+  </r>
+  <r>
+    <n v="406"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="491"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="129"/>
     <x v="3"/>
-    <n v="558"/>
-  </r>
-  <r>
-    <n v="183"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="592"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="463"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="565"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="F"/>
     <x v="3"/>
-    <x v="0"/>
-    <s v="M"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="563"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="628"/>
+  </r>
+  <r>
+    <n v="287"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="455"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="523"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="461"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1004"/>
+  </r>
+  <r>
+    <n v="335"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="F"/>
     <x v="3"/>
-    <n v="437"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="F"/>
+    <n v="499"/>
+  </r>
+  <r>
+    <n v="481"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="617"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="M"/>
     <x v="0"/>
     <n v="300"/>
   </r>
   <r>
-    <n v="199"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="162"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="456"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <n v="286"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="498"/>
+  </r>
+  <r>
+    <n v="357"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="536"/>
+  </r>
+  <r>
+    <n v="338"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="396"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <n v="454"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="M"/>
     <x v="0"/>
     <n v="400"/>
   </r>
   <r>
-    <n v="463"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="909"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="F"/>
+    <n v="39"/>
+    <x v="2"/>
     <x v="3"/>
-    <n v="582"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="846"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="884"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="651"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="812"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="650"/>
-  </r>
-  <r>
-    <n v="423"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="937"/>
-  </r>
-  <r>
-    <n v="455"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="995"/>
-  </r>
-  <r>
-    <n v="461"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="838"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <x v="5"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="762"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="874"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="783"/>
-  </r>
-  <r>
-    <n v="481"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="799"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="0"/>
-    <x v="3"/>
     <s v="M"/>
     <x v="0"/>
     <n v="300"/>
   </r>
   <r>
-    <n v="162"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="1021"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="850"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="645"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="567"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="421"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="454"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="811"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="680"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="257"/>
+    <n v="155"/>
     <x v="5"/>
     <x v="3"/>
     <s v="M"/>
-    <x v="0"/>
-    <n v="600"/>
+    <x v="2"/>
+    <n v="316"/>
   </r>
   <r>
     <n v="293"/>
@@ -532,7 +548,7 @@
     <x v="4"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="421"/>
+    <n v="377"/>
   </r>
   <r>
     <n v="396"/>
@@ -540,7 +556,7 @@
     <x v="4"/>
     <s v="F"/>
     <x v="1"/>
-    <n v="715"/>
+    <n v="787"/>
   </r>
   <r>
     <n v="433"/>
@@ -548,15 +564,7 @@
     <x v="4"/>
     <s v="M"/>
     <x v="2"/>
-    <n v="1005"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <x v="5"/>
-    <x v="4"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="584"/>
+    <n v="717"/>
   </r>
   <r>
     <n v="270"/>
@@ -567,6 +575,30 @@
     <n v="300"/>
   </r>
   <r>
+    <n v="132"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="467"/>
+  </r>
+  <r>
+    <n v="423"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="483"/>
+  </r>
+  <r>
+    <n v="467"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="416"/>
+  </r>
+  <r>
     <n v="2"/>
     <x v="0"/>
     <x v="5"/>
@@ -580,7 +612,7 @@
     <x v="5"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="936"/>
+    <n v="572"/>
   </r>
   <r>
     <n v="159"/>
@@ -588,7 +620,7 @@
     <x v="5"/>
     <s v="M"/>
     <x v="2"/>
-    <n v="739"/>
+    <n v="677"/>
   </r>
   <r>
     <n v="171"/>
@@ -596,7 +628,7 @@
     <x v="5"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="848"/>
+    <n v="1259"/>
   </r>
   <r>
     <n v="179"/>
@@ -604,7 +636,15 @@
     <x v="5"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="883"/>
+    <n v="523"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="500"/>
   </r>
   <r>
     <n v="223"/>
@@ -631,2992 +671,2960 @@
     <n v="1100"/>
   </r>
   <r>
+    <n v="289"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="584"/>
+  </r>
+  <r>
+    <n v="299"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
     <n v="211"/>
     <x v="1"/>
     <x v="5"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="659"/>
-  </r>
-  <r>
-    <n v="299"/>
+    <n v="609"/>
+  </r>
+  <r>
+    <n v="418"/>
     <x v="1"/>
     <x v="5"/>
     <s v="M"/>
+    <x v="2"/>
+    <n v="667"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="M"/>
     <x v="0"/>
     <n v="600"/>
   </r>
   <r>
-    <n v="13"/>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="594"/>
-  </r>
-  <r>
-    <n v="418"/>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="729"/>
-  </r>
-  <r>
-    <n v="127"/>
+    <n v="348"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="M"/>
     <x v="3"/>
-    <x v="5"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="558"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <x v="7"/>
-    <x v="5"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="586"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <x v="2"/>
-    <x v="5"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="594"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="1"/>
+    <n v="546"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <x v="3"/>
     <x v="6"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <x v="1"/>
-    <x v="6"/>
-    <s v="M"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="400"/>
   </r>
   <r>
-    <n v="348"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="616"/>
-  </r>
-  <r>
-    <n v="267"/>
+    <n v="255"/>
     <x v="4"/>
     <x v="6"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <x v="7"/>
     <s v="F"/>
     <x v="0"/>
     <n v="400"/>
   </r>
   <r>
-    <n v="24"/>
-    <x v="0"/>
+    <n v="21"/>
+    <x v="1"/>
     <x v="7"/>
-    <s v="M"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="845"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="284"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="295"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="297"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="600"/>
   </r>
   <r>
-    <n v="21"/>
-    <x v="1"/>
+    <n v="326"/>
+    <x v="0"/>
     <x v="7"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="933"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="765"/>
+  </r>
+  <r>
+    <n v="344"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="638"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="387"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="278"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="2"/>
+    <x v="7"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="733"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="694"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="763"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="3"/>
+    <x v="8"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="308"/>
+  </r>
+  <r>
+    <n v="379"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="523"/>
+  </r>
+  <r>
+    <n v="472"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="793"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <x v="8"/>
     <s v="F"/>
     <x v="0"/>
     <n v="500"/>
   </r>
   <r>
-    <n v="210"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="114"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="756"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="827"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="627"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="624"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="787"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="799"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="677"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="492"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="745"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <x v="4"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <x v="3"/>
+    <x v="10"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="664"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <x v="2"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <n v="459"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="766"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="1052"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1100"/>
+  </r>
+  <r>
+    <n v="288"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="1359"/>
+  </r>
+  <r>
+    <n v="345"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="770"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="776"/>
+  </r>
+  <r>
+    <n v="367"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="794"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="1025"/>
+  </r>
+  <r>
+    <n v="447"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="831"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="779"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="1014"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="823"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="997"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1004"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1028"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="792"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="316"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="672"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="796"/>
+  </r>
+  <r>
+    <n v="325"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="696"/>
+  </r>
+  <r>
+    <n v="333"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="1004"/>
+  </r>
+  <r>
+    <n v="355"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="717"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1032"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="451"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="500"/>
   </r>
   <r>
-    <n v="228"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="F"/>
+    <n v="59"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="M"/>
     <x v="3"/>
+    <n v="905"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="647"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="592"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="629"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1020"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="966"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="683"/>
+  </r>
+  <r>
+    <n v="314"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="899"/>
+  </r>
+  <r>
+    <n v="319"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="928"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="771"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="612"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="710"/>
+  </r>
+  <r>
+    <n v="359"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="519"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="1"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="684"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="3"/>
+    <x v="13"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="514"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="3"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="561"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="292"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <x v="3"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="412"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <n v="417"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="324"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="4"/>
+    <x v="14"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="818"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="795"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="955"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="824"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
     <n v="713"/>
   </r>
   <r>
-    <n v="252"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="217"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="757"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="800"/>
   </r>
   <r>
-    <n v="284"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="264"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="327"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="733"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="798"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="1"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <n v="358"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="724"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="744"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="859"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="455"/>
+  </r>
+  <r>
+    <n v="374"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1157"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="392"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="751"/>
+  </r>
+  <r>
+    <n v="394"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="617"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="588"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <n v="298"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <x v="6"/>
+    <x v="16"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="273"/>
+  </r>
+  <r>
+    <n v="476"/>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="665"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="800"/>
   </r>
   <r>
-    <n v="202"/>
-    <x v="1"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="716"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="474"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1100"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="755"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <n v="294"/>
+    <x v="3"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <x v="3"/>
+    <x v="17"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="406"/>
+  </r>
+  <r>
+    <n v="398"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="501"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="3"/>
+    <x v="17"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="600"/>
   </r>
   <r>
-    <n v="295"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="449"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="3"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="470"/>
+  </r>
+  <r>
+    <n v="474"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="611"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1100"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1100"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="697"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="1390"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="642"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="713"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="907"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="629"/>
+  </r>
+  <r>
+    <n v="346"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="601"/>
+  </r>
+  <r>
+    <n v="352"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="683"/>
+  </r>
+  <r>
+    <n v="372"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="802"/>
+  </r>
+  <r>
+    <n v="427"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="711"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <n v="443"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="589"/>
+  </r>
+  <r>
+    <n v="457"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="603"/>
+  </r>
+  <r>
+    <n v="470"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="510"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="699"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="748"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="734"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="282"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="334"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="1097"/>
+  </r>
+  <r>
+    <n v="407"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="686"/>
+  </r>
+  <r>
+    <n v="414"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="708"/>
+  </r>
+  <r>
+    <n v="424"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="805"/>
+  </r>
+  <r>
+    <n v="426"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="761"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="729"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1141"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="976"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="465"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="923"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="774"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="614"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="491"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="653"/>
+  </r>
+  <r>
+    <n v="354"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="733"/>
+  </r>
+  <r>
+    <n v="373"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="463"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="4"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="435"/>
+  </r>
+  <r>
+    <n v="422"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="697"/>
+  </r>
+  <r>
+    <n v="430"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="743"/>
+  </r>
+  <r>
+    <n v="446"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="758"/>
+  </r>
+  <r>
+    <n v="386"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="474"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="0"/>
+    <x v="22"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <n v="434"/>
+    <x v="0"/>
+    <x v="22"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="504"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
     <x v="0"/>
     <n v="1000"/>
   </r>
   <r>
-    <n v="297"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <x v="0"/>
-    <x v="7"/>
+    <n v="64"/>
+    <x v="0"/>
+    <x v="23"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="917"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="1"/>
-    <x v="7"/>
+    <n v="1119"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="496"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="809"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="526"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="505"/>
+  </r>
+  <r>
+    <n v="291"/>
+    <x v="0"/>
+    <x v="23"/>
     <s v="M"/>
     <x v="0"/>
     <n v="700"/>
   </r>
   <r>
-    <n v="343"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="308"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
     <x v="3"/>
-    <n v="889"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="M"/>
+    <n v="883"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
     <x v="3"/>
-    <n v="537"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <x v="1"/>
-    <x v="7"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="500"/>
+    <n v="957"/>
   </r>
   <r>
     <n v="342"/>
-    <x v="2"/>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="23"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="432"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <n v="351"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="511"/>
+  </r>
+  <r>
+    <n v="403"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="514"/>
+  </r>
+  <r>
+    <n v="416"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <x v="4"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="684"/>
+  </r>
+  <r>
+    <n v="456"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="846"/>
+  </r>
+  <r>
+    <n v="477"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="853"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="808"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="855"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="1162"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="805"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1100"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="1029"/>
+  </r>
+  <r>
+    <n v="279"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="328"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="1051"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="902"/>
+  </r>
+  <r>
+    <n v="475"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1310"/>
+  </r>
+  <r>
+    <n v="480"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="1233"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="821"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="673"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="543"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="535"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="601"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="696"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="606"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="789"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="568"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <x v="1"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="515"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="1"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="540"/>
   </r>
   <r>
     <n v="365"/>
-    <x v="2"/>
-    <x v="7"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="552"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="F"/>
+    <x v="1"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="631"/>
+  </r>
+  <r>
+    <n v="389"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="589"/>
+  </r>
+  <r>
+    <n v="399"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <n v="444"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="715"/>
+  </r>
+  <r>
+    <n v="469"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="630"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="846"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="290"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1115"/>
+  </r>
+  <r>
+    <n v="405"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="554"/>
+  </r>
+  <r>
+    <n v="413"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="510"/>
+  </r>
+  <r>
+    <n v="431"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="604"/>
+  </r>
+  <r>
+    <n v="440"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="441"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <x v="5"/>
+    <x v="26"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="421"/>
+  </r>
+  <r>
+    <n v="312"/>
+    <x v="2"/>
+    <x v="26"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="464"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <x v="5"/>
+    <x v="26"/>
+    <s v="M"/>
     <x v="0"/>
     <n v="300"/>
   </r>
   <r>
-    <n v="60"/>
-    <x v="0"/>
-    <x v="8"/>
+    <n v="32"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+    <x v="27"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="761"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="766"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <x v="0"/>
-    <x v="8"/>
+    <n v="751"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="1220"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="674"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="966"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="868"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="849"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="739"/>
+  </r>
+  <r>
+    <n v="311"/>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="662"/>
+  </r>
+  <r>
+    <n v="356"/>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="632"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="707"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="4"/>
+    <x v="27"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="468"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <x v="1"/>
+    <x v="27"/>
     <s v="M"/>
     <x v="3"/>
     <n v="748"/>
   </r>
   <r>
-    <n v="42"/>
-    <x v="1"/>
-    <x v="8"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="1"/>
-    <x v="8"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="809"/>
-  </r>
-  <r>
-    <n v="472"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="988"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <x v="0"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <x v="0"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="889"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <x v="0"/>
-    <x v="9"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="838"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <x v="1"/>
-    <x v="9"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="463"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <x v="5"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="525"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <x v="4"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <x v="5"/>
-    <x v="9"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="635"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="4"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="633"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <x v="4"/>
-    <x v="9"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="802"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="752"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="683"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <x v="5"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="874"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <x v="1"/>
-    <x v="10"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <x v="1"/>
-    <x v="10"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <x v="2"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="436"/>
-  </r>
-  <r>
-    <n v="459"/>
-    <x v="0"/>
-    <x v="10"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="906"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="902"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="798"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="944"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="898"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1100"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="1208"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="924"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="1022"/>
-  </r>
-  <r>
-    <n v="447"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="840"/>
-  </r>
-  <r>
-    <n v="476"/>
-    <x v="0"/>
-    <x v="11"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="847"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="1017"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="678"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="799"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1231"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="998"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="843"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="804"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="816"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="856"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <x v="1"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <x v="4"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="966"/>
-  </r>
-  <r>
-    <n v="437"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="867"/>
-  </r>
-  <r>
-    <n v="451"/>
-    <x v="0"/>
-    <x v="12"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="978"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="725"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="626"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="626"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="779"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="792"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="608"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="777"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <x v="1"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="789"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="791"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="864"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="763"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <x v="4"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <x v="0"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="616"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <x v="5"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="631"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <x v="4"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="664"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <x v="4"/>
-    <x v="13"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="644"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <x v="5"/>
-    <x v="13"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="660"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <x v="0"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="622"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <x v="1"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="594"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <x v="1"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <x v="0"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <x v="1"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <x v="0"/>
-    <x v="14"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="727"/>
-  </r>
-  <r>
-    <n v="417"/>
-    <x v="0"/>
-    <x v="14"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="870"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="1"/>
-    <x v="14"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <x v="4"/>
-    <x v="14"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="551"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="841"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="878"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="835"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="893"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="855"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="816"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="835"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="871"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <x v="0"/>
-    <x v="15"/>
+    <n v="58"/>
+    <x v="0"/>
+    <x v="28"/>
     <s v="M"/>
     <x v="3"/>
     <n v="1069"/>
   </r>
   <r>
-    <n v="251"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <x v="0"/>
-    <x v="15"/>
+    <n v="84"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="1114"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="790"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="831"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="586"/>
+  </r>
+  <r>
+    <n v="318"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="604"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="649"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="963"/>
+  </r>
+  <r>
+    <n v="390"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="587"/>
+  </r>
+  <r>
+    <n v="432"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="764"/>
+  </r>
+  <r>
+    <n v="442"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="698"/>
+  </r>
+  <r>
+    <n v="473"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="877"/>
+  </r>
+  <r>
+    <n v="479"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1160"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="798"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="567"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="618"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="733"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="432"/>
+  </r>
+  <r>
+    <n v="313"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="652"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <x v="1"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <x v="1"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="610"/>
+  </r>
+  <r>
+    <n v="277"/>
+    <x v="1"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="371"/>
+    <x v="4"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="415"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="958"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="7"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="438"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="619"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <x v="4"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <x v="2"/>
+    <x v="29"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="434"/>
+  </r>
+  <r>
+    <n v="483"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="461"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="30"/>
     <s v="F"/>
     <x v="0"/>
     <n v="900"/>
   </r>
   <r>
-    <n v="280"/>
-    <x v="0"/>
-    <x v="15"/>
+    <n v="62"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="710"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1181"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="544"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="790"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="620"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="3"/>
+    <n v="788"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="516"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="1188"/>
+  </r>
+  <r>
+    <n v="283"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="3"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="706"/>
+  </r>
+  <r>
+    <n v="377"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="952"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="688"/>
+  </r>
+  <r>
+    <n v="445"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="644"/>
+  </r>
+  <r>
+    <n v="452"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="715"/>
+  </r>
+  <r>
+    <n v="378"/>
+    <x v="2"/>
+    <x v="30"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="514"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="587"/>
+  </r>
+  <r>
+    <n v="429"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="850"/>
+  </r>
+  <r>
+    <n v="435"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="1515"/>
+  </r>
+  <r>
+    <n v="482"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="319"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="484"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="762"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="275"/>
+    <x v="0"/>
+    <x v="32"/>
     <s v="M"/>
     <x v="0"/>
     <n v="1000"/>
   </r>
   <r>
-    <n v="322"/>
-    <x v="0"/>
-    <x v="15"/>
+    <n v="278"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="820"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <x v="0"/>
+    <x v="32"/>
     <s v="F"/>
     <x v="3"/>
-    <n v="790"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <x v="1"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="604"/>
+  </r>
+  <r>
+    <n v="368"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="533"/>
+  </r>
+  <r>
+    <n v="369"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="499"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1210"/>
+  </r>
+  <r>
+    <n v="408"/>
     <x v="3"/>
-    <n v="860"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <x v="1"/>
-    <x v="15"/>
+    <x v="32"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="414"/>
+  </r>
+  <r>
+    <n v="425"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="525"/>
+  </r>
+  <r>
+    <n v="441"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="698"/>
+  </r>
+  <r>
+    <n v="460"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="826"/>
+  </r>
+  <r>
+    <n v="464"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="506"/>
+  </r>
+  <r>
+    <n v="471"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="740"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="456"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="814"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="663"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="522"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="726"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="531"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <n v="285"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <n v="317"/>
+    <x v="0"/>
+    <x v="33"/>
     <s v="F"/>
     <x v="3"/>
-    <n v="815"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="912"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="786"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <x v="0"/>
-    <x v="15"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="911"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="1"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <x v="1"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="935"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <x v="1"/>
-    <x v="16"/>
-    <s v="F"/>
+    <n v="654"/>
+  </r>
+  <r>
+    <n v="388"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="929"/>
+  </r>
+  <r>
+    <n v="402"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="782"/>
+  </r>
+  <r>
+    <n v="409"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="545"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="443"/>
+  </r>
+  <r>
+    <n v="376"/>
+    <x v="2"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="482"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <x v="5"/>
+    <x v="33"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="487"/>
+  </r>
+  <r>
+    <n v="484"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="630"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="932"/>
+  </r>
+  <r>
+    <n v="395"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <x v="6"/>
+    <x v="34"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="2"/>
+    <x v="34"/>
+    <s v="M"/>
     <x v="0"/>
     <n v="500"/>
   </r>
   <r>
-    <n v="392"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="848"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="705"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="1021"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="6"/>
-    <x v="16"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <x v="1"/>
-    <x v="16"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="691"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="732"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="475"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="1100"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="685"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="1"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <x v="4"/>
-    <x v="17"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="819"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="4"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <x v="1"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="767"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <x v="4"/>
-    <x v="17"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="575"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <x v="4"/>
-    <x v="17"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="635"/>
-  </r>
-  <r>
-    <n v="474"/>
-    <x v="0"/>
-    <x v="17"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="908"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <x v="1"/>
-    <x v="17"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="563"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1100"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1100"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="939"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="812"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="848"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="767"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="698"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="791"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="693"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1075"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="864"/>
-  </r>
-  <r>
-    <n v="427"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="1209"/>
-  </r>
-  <r>
-    <n v="439"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="898"/>
-  </r>
-  <r>
-    <n v="443"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="867"/>
-  </r>
-  <r>
-    <n v="450"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="758"/>
-  </r>
-  <r>
-    <n v="457"/>
-    <x v="0"/>
-    <x v="18"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="975"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <x v="0"/>
-    <x v="19"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <x v="0"/>
-    <x v="19"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="865"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <x v="4"/>
-    <x v="19"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="539"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="2"/>
-    <x v="19"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="514"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="861"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="1039"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="772"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="780"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="973"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="799"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="776"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="894"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="798"/>
-  </r>
-  <r>
-    <n v="424"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="838"/>
-  </r>
-  <r>
-    <n v="449"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="811"/>
-  </r>
-  <r>
-    <n v="466"/>
-    <x v="0"/>
-    <x v="20"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1051"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1025"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="992"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="769"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="619"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="579"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="820"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="931"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="889"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="675"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="734"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <x v="1"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="577"/>
-  </r>
-  <r>
-    <n v="422"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="673"/>
-  </r>
-  <r>
-    <n v="430"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1089"/>
-  </r>
-  <r>
-    <n v="446"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="833"/>
-  </r>
-  <r>
-    <n v="467"/>
-    <x v="0"/>
-    <x v="21"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="939"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <x v="1"/>
-    <x v="21"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="586"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <x v="0"/>
-    <x v="22"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="838"/>
-  </r>
-  <r>
-    <n v="434"/>
-    <x v="0"/>
-    <x v="22"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="908"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="1193"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="739"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="697"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="670"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="912"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="780"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="927"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="1002"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <x v="1"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="712"/>
-  </r>
-  <r>
-    <n v="416"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1001"/>
-  </r>
-  <r>
-    <n v="456"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="844"/>
-  </r>
-  <r>
-    <n v="477"/>
-    <x v="0"/>
-    <x v="23"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="936"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="1106"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1170"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="1024"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1022"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="893"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="929"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="1100"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1067"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="1072"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="958"/>
-  </r>
-  <r>
-    <n v="470"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="932"/>
-  </r>
-  <r>
-    <n v="480"/>
-    <x v="0"/>
-    <x v="24"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="888"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="647"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="733"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="647"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="841"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="878"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="656"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="980"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="676"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <x v="1"/>
-    <x v="25"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="714"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="714"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="896"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="846"/>
-  </r>
-  <r>
-    <n v="440"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="884"/>
-  </r>
-  <r>
-    <n v="444"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="879"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <x v="4"/>
-    <x v="25"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="668"/>
-  </r>
-  <r>
-    <n v="469"/>
-    <x v="0"/>
-    <x v="25"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="945"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <x v="0"/>
-    <x v="26"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="827"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <x v="0"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="822"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <x v="0"/>
-    <x v="26"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1092"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <x v="1"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="601"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <x v="2"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="546"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <x v="1"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="696"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <x v="7"/>
-    <x v="26"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="490"/>
-  </r>
-  <r>
-    <n v="431"/>
-    <x v="0"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="1076"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <x v="1"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="684"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <x v="7"/>
-    <x v="26"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <x v="5"/>
-    <x v="26"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="694"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="998"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="1125"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="790"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="768"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="680"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="841"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="758"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="963"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="728"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <x v="1"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="619"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <x v="0"/>
-    <x v="27"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="642"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <x v="4"/>
-    <x v="27"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="746"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <x v="2"/>
-    <x v="27"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="702"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="1038"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="1208"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="770"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="992"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="835"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <x v="1"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="771"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <x v="4"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="723"/>
-  </r>
-  <r>
-    <n v="432"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="966"/>
-  </r>
-  <r>
-    <n v="442"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="943"/>
-  </r>
-  <r>
-    <n v="453"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="858"/>
-  </r>
-  <r>
-    <n v="465"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="849"/>
-  </r>
-  <r>
-    <n v="473"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="964"/>
-  </r>
-  <r>
-    <n v="479"/>
-    <x v="0"/>
-    <x v="28"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="741"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <x v="1"/>
-    <x v="28"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="885"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="777"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1062"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="951"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="801"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="472"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="3"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <x v="1"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="415"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1163"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <x v="2"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <x v="1"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="739"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <x v="5"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <n v="438"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="906"/>
-  </r>
-  <r>
-    <n v="483"/>
-    <x v="0"/>
-    <x v="29"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="758"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="1324"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="1208"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="812"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="784"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="952"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="821"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="1036"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <x v="1"/>
-    <x v="30"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="3"/>
-    <n v="944"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="763"/>
-  </r>
-  <r>
-    <n v="421"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="942"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <x v="1"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="734"/>
-  </r>
-  <r>
-    <n v="445"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="804"/>
-  </r>
-  <r>
-    <n v="452"/>
-    <x v="0"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="977"/>
-  </r>
-  <r>
-    <n v="475"/>
-    <x v="1"/>
-    <x v="30"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="749"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <x v="0"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="901"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <x v="6"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="429"/>
-    <x v="0"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="938"/>
-  </r>
-  <r>
-    <n v="435"/>
-    <x v="0"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1038"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <x v="6"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="482"/>
-    <x v="0"/>
-    <x v="31"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="936"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="774"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="882"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="826"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="752"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="1069"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="797"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="641"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="994"/>
-  </r>
-  <r>
-    <n v="425"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="920"/>
-  </r>
-  <r>
-    <n v="441"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="829"/>
-  </r>
-  <r>
-    <n v="426"/>
-    <x v="1"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="759"/>
-  </r>
-  <r>
-    <n v="460"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="925"/>
-  </r>
-  <r>
-    <n v="464"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="765"/>
-  </r>
-  <r>
-    <n v="471"/>
-    <x v="0"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="815"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <x v="1"/>
-    <x v="32"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="657"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="735"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="908"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="840"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="1056"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="772"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="661"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="700"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="1200"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="792"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="736"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="859"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="992"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="994"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="739"/>
-  </r>
-  <r>
-    <n v="428"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="971"/>
-  </r>
-  <r>
-    <n v="484"/>
-    <x v="0"/>
-    <x v="33"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="811"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <x v="0"/>
-    <x v="34"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="805"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <x v="0"/>
-    <x v="34"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="785"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <x v="0"/>
-    <x v="34"/>
-    <s v="M"/>
-    <x v="1"/>
-    <n v="662"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <x v="0"/>
-    <x v="34"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="897"/>
-  </r>
-  <r>
     <n v="19"/>
-    <x v="5"/>
-    <x v="34"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <x v="1"/>
-    <x v="34"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="363"/>
     <x v="4"/>
     <x v="34"/>
     <s v="F"/>
-    <x v="1"/>
-    <n v="617"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <x v="6"/>
+    <x v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="448"/>
+    <x v="0"/>
     <x v="34"/>
-    <s v="M"/>
-    <x v="0"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="448"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="714"/>
+  </r>
+  <r>
+    <n v="458"/>
     <x v="0"/>
     <x v="34"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="944"/>
-  </r>
-  <r>
-    <n v="335"/>
+    <n v="683"/>
+  </r>
+  <r>
+    <n v="465"/>
     <x v="3"/>
     <x v="34"/>
     <s v="F"/>
-    <x v="3"/>
-    <n v="538"/>
-  </r>
-  <r>
-    <n v="458"/>
+    <x v="2"/>
+    <n v="508"/>
+  </r>
+  <r>
+    <n v="468"/>
     <x v="0"/>
     <x v="34"/>
-    <s v="F"/>
-    <x v="2"/>
-    <n v="736"/>
-  </r>
-  <r>
-    <n v="468"/>
-    <x v="0"/>
+    <s v="M"/>
+    <x v="2"/>
+    <n v="762"/>
+  </r>
+  <r>
+    <n v="450"/>
+    <x v="1"/>
     <x v="34"/>
-    <s v="M"/>
-    <x v="2"/>
-    <n v="977"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="2"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="524"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <x v="1"/>
     <x v="34"/>
     <s v="M"/>
     <x v="0"/>
@@ -3628,7 +3636,15 @@
     <x v="34"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="782"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <n v="453"/>
+    <x v="1"/>
+    <x v="34"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="526"/>
   </r>
   <r>
     <n v="27"/>
@@ -3644,7 +3660,7 @@
     <x v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <n v="1202"/>
+    <n v="1194"/>
   </r>
   <r>
     <n v="139"/>
@@ -3652,7 +3668,7 @@
     <x v="35"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="938"/>
+    <n v="449"/>
   </r>
   <r>
     <n v="12"/>
@@ -3668,7 +3684,15 @@
     <x v="35"/>
     <s v="F"/>
     <x v="2"/>
-    <n v="1061"/>
+    <n v="551"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <x v="1"/>
+    <x v="35"/>
+    <s v="F"/>
+    <x v="2"/>
+    <n v="557"/>
   </r>
   <r>
     <n v="364"/>
@@ -3676,15 +3700,7 @@
     <x v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <n v="705"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <x v="5"/>
-    <x v="35"/>
-    <s v="F"/>
-    <x v="1"/>
-    <n v="625"/>
+    <n v="695"/>
   </r>
   <r>
     <n v="41"/>
@@ -3692,15 +3708,7 @@
     <x v="35"/>
     <s v="M"/>
     <x v="3"/>
-    <n v="528"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <x v="6"/>
-    <x v="35"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="589"/>
+    <n v="442"/>
   </r>
   <r>
     <n v="190"/>
@@ -3708,7 +3716,7 @@
     <x v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <n v="811"/>
+    <n v="541"/>
   </r>
   <r>
     <n v="339"/>
@@ -3716,45 +3724,37 @@
     <x v="36"/>
     <s v="F"/>
     <x v="3"/>
-    <n v="597"/>
-  </r>
-  <r>
-    <n v="54"/>
+    <n v="327"/>
+  </r>
+  <r>
+    <n v="391"/>
     <x v="8"/>
     <x v="37"/>
-    <s v="F"/>
-    <x v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <n v="87"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="283"/>
+  </r>
+  <r>
+    <n v="428"/>
     <x v="8"/>
     <x v="37"/>
     <s v="F"/>
-    <x v="3"/>
-    <n v="467"/>
-  </r>
-  <r>
-    <n v="93"/>
+    <x v="2"/>
+    <n v="194"/>
+  </r>
+  <r>
+    <n v="466"/>
     <x v="8"/>
     <x v="37"/>
     <s v="F"/>
-    <x v="3"/>
-    <n v="486"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <x v="8"/>
-    <x v="37"/>
-    <s v="F"/>
-    <x v="3"/>
-    <n v="556"/>
+    <x v="2"/>
+    <n v="320"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -3969,7 +3969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -3977,12 +3977,12 @@
       <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="2"/>
         <item x="6"/>
+        <item x="5"/>
         <item x="7"/>
-        <item x="3"/>
         <item x="8"/>
         <item t="default"/>
       </items>
@@ -4068,7 +4068,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -4076,12 +4076,12 @@
       <items count="10">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="2"/>
         <item x="6"/>
+        <item x="5"/>
         <item x="7"/>
-        <item x="3"/>
         <item x="8"/>
         <item t="default"/>
       </items>
@@ -4406,7 +4406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -4450,16 +4450,16 @@
       <c r="A5" s="2">
         <v>-1</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4470,10 +4470,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -4489,30 +4489,32 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <v>12</v>
@@ -4523,19 +4525,19 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4563,16 +4565,14 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
         <v>16</v>
@@ -4583,7 +4583,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -4591,7 +4591,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4602,10 +4602,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
@@ -4626,21 +4626,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>31</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -4649,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4657,16 +4655,16 @@
         <v>37</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>12</v>
@@ -4680,13 +4678,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>16</v>
@@ -4697,10 +4695,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -4720,12 +4718,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
       <c r="F19" s="3">
         <v>17</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -4744,10 +4744,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <v>8</v>
@@ -4763,9 +4763,7 @@
       <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3">
         <v>18</v>
       </c>
@@ -4775,15 +4773,19 @@
         <v>61</v>
       </c>
       <c r="B22" s="3">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
       <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
       <c r="F22" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4794,13 +4796,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>16</v>
@@ -4814,13 +4816,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
         <v>16</v>
@@ -4831,32 +4833,32 @@
         <v>79</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>83</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
       <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7</v>
       </c>
       <c r="F26" s="3">
         <v>12</v>
@@ -4868,13 +4870,13 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>16</v>
@@ -4904,10 +4906,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -4921,7 +4923,7 @@
         <v>107</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -4930,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>12</v>
@@ -4945,10 +4947,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="3">
         <v>16</v>
@@ -4962,16 +4964,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,16 +4981,16 @@
         <v>127</v>
       </c>
       <c r="B33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
-        <v>6</v>
-      </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>14</v>
@@ -5000,13 +5002,13 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="3">
         <v>14</v>
@@ -5023,13 +5025,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
       </c>
       <c r="F35" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,13 +5042,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3">
         <v>16</v>
@@ -5056,9 +5058,7 @@
       <c r="A37" s="2">
         <v>149</v>
       </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>151</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3">
         <v>16</v>
@@ -5098,13 +5098,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
         <v>16</v>
@@ -5115,16 +5115,14 @@
         <v>163</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" s="3">
         <v>14</v>
@@ -5138,16 +5136,16 @@
         <v>2</v>
       </c>
       <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
       <c r="F41" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -5195,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5257,22 +5255,22 @@
         <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -5280,9 +5278,7 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>100</v>
       </c>
@@ -5292,32 +5288,28 @@
         <v>2020</v>
       </c>
       <c r="B6" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
-        <v>7</v>
-      </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3">
         <v>109</v>
       </c>
@@ -5327,28 +5319,30 @@
         <v>2021</v>
       </c>
       <c r="B7" s="3">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
       <c r="K7" s="3">
         <v>109</v>
       </c>
@@ -5358,18 +5352,30 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
       <c r="K8" s="3">
         <v>124</v>
       </c>
@@ -5379,31 +5385,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C9" s="3">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
         <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>442</v>
@@ -5443,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5451,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5467,7 +5473,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5475,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5483,7 +5489,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5491,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5499,7 +5505,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5507,7 +5513,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="A1:F443"/>
     </sheetView>
   </sheetViews>
